--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.806362666666667</v>
+        <v>2.483363</v>
       </c>
       <c r="H2">
-        <v>5.419088</v>
+        <v>7.450089</v>
       </c>
       <c r="I2">
-        <v>0.1440901375398994</v>
+        <v>0.2051023768672611</v>
       </c>
       <c r="J2">
-        <v>0.1563717766194316</v>
+        <v>0.2077257034093822</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.387375</v>
       </c>
       <c r="O2">
-        <v>0.339632368509997</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4354945329205199</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2332465793333334</v>
+        <v>0.320664247375</v>
       </c>
       <c r="R2">
-        <v>2.099219214</v>
+        <v>2.885978226375</v>
       </c>
       <c r="S2">
-        <v>0.04893767469160725</v>
+        <v>0.2051023768672611</v>
       </c>
       <c r="T2">
-        <v>0.06809905382083123</v>
+        <v>0.2077257034093822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.806362666666667</v>
+        <v>5.391078</v>
       </c>
       <c r="H3">
-        <v>5.419088</v>
+        <v>16.173234</v>
       </c>
       <c r="I3">
-        <v>0.1440901375398994</v>
+        <v>0.4452522292056377</v>
       </c>
       <c r="J3">
-        <v>0.1563717766194316</v>
+        <v>0.4509471509742415</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2510655</v>
+        <v>0.129125</v>
       </c>
       <c r="N3">
-        <v>0.502131</v>
+        <v>0.387375</v>
       </c>
       <c r="O3">
-        <v>0.6603676314900031</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.56450546707948</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.453515346088</v>
+        <v>0.6961229467500001</v>
       </c>
       <c r="R3">
-        <v>2.721092076528</v>
+        <v>6.265106520750001</v>
       </c>
       <c r="S3">
-        <v>0.09515246284829212</v>
+        <v>0.4452522292056377</v>
       </c>
       <c r="T3">
-        <v>0.08827272279860032</v>
+        <v>0.4509471509742415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.391078</v>
+        <v>2.328295999999999</v>
       </c>
       <c r="H4">
-        <v>16.173234</v>
+        <v>6.984887999999999</v>
       </c>
       <c r="I4">
-        <v>0.4300361078330849</v>
+        <v>0.1922953042509437</v>
       </c>
       <c r="J4">
-        <v>0.4666905823012646</v>
+        <v>0.1947548241417991</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.387375</v>
       </c>
       <c r="O4">
-        <v>0.339632368509997</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4354945329205199</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6961229467500001</v>
+        <v>0.300641221</v>
       </c>
       <c r="R4">
-        <v>6.265106520750001</v>
+        <v>2.705770989</v>
       </c>
       <c r="S4">
-        <v>0.1460541818481711</v>
+        <v>0.1922953042509437</v>
       </c>
       <c r="T4">
-        <v>0.2032411971576947</v>
+        <v>0.1947548241417991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.391078</v>
+        <v>0.4587255</v>
       </c>
       <c r="H5">
-        <v>16.173234</v>
+        <v>0.917451</v>
       </c>
       <c r="I5">
-        <v>0.4300361078330849</v>
+        <v>0.03788640258376353</v>
       </c>
       <c r="J5">
-        <v>0.4666905823012646</v>
+        <v>0.02558065471682836</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2510655</v>
+        <v>0.129125</v>
       </c>
       <c r="N5">
-        <v>0.502131</v>
+        <v>0.387375</v>
       </c>
       <c r="O5">
-        <v>0.6603676314900031</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.56450546707948</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.353513693609</v>
+        <v>0.05923293018750001</v>
       </c>
       <c r="R5">
-        <v>8.121082161654</v>
+        <v>0.355397581125</v>
       </c>
       <c r="S5">
-        <v>0.2839819259849138</v>
+        <v>0.03788640258376353</v>
       </c>
       <c r="T5">
-        <v>0.2634493851435699</v>
+        <v>0.02558065471682836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.483371</v>
+        <v>1.446456666666667</v>
       </c>
       <c r="H6">
-        <v>4.450113000000001</v>
+        <v>4.33937</v>
       </c>
       <c r="I6">
-        <v>0.1183257024499499</v>
+        <v>0.119463687092394</v>
       </c>
       <c r="J6">
-        <v>0.1284112891259984</v>
+        <v>0.1209916667577489</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.387375</v>
       </c>
       <c r="O6">
-        <v>0.339632368509997</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.4354945329205199</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1915402803750001</v>
+        <v>0.1867737170833333</v>
       </c>
       <c r="R6">
-        <v>1.723862523375</v>
+        <v>1.68096345375</v>
       </c>
       <c r="S6">
-        <v>0.04018723857868565</v>
+        <v>0.119463687092394</v>
       </c>
       <c r="T6">
-        <v>0.05592241437964852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.483371</v>
-      </c>
-      <c r="H7">
-        <v>4.450113000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.1183257024499499</v>
-      </c>
-      <c r="J7">
-        <v>0.1284112891259984</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.2510655</v>
-      </c>
-      <c r="N7">
-        <v>0.502131</v>
-      </c>
-      <c r="O7">
-        <v>0.6603676314900031</v>
-      </c>
-      <c r="P7">
-        <v>0.56450546707948</v>
-      </c>
-      <c r="Q7">
-        <v>0.3724232818005001</v>
-      </c>
-      <c r="R7">
-        <v>2.234539690803</v>
-      </c>
-      <c r="S7">
-        <v>0.07813846387126429</v>
-      </c>
-      <c r="T7">
-        <v>0.07248887474634989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.95386</v>
-      </c>
-      <c r="H8">
-        <v>5.90772</v>
-      </c>
-      <c r="I8">
-        <v>0.2356238320951461</v>
-      </c>
-      <c r="J8">
-        <v>0.1704716129670063</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.129125</v>
-      </c>
-      <c r="N8">
-        <v>0.387375</v>
-      </c>
-      <c r="O8">
-        <v>0.339632368509997</v>
-      </c>
-      <c r="P8">
-        <v>0.4354945329205199</v>
-      </c>
-      <c r="Q8">
-        <v>0.3814171725000001</v>
-      </c>
-      <c r="R8">
-        <v>2.288503035</v>
-      </c>
-      <c r="S8">
-        <v>0.08002548017187633</v>
-      </c>
-      <c r="T8">
-        <v>0.07423945546527405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.95386</v>
-      </c>
-      <c r="H9">
-        <v>5.90772</v>
-      </c>
-      <c r="I9">
-        <v>0.2356238320951461</v>
-      </c>
-      <c r="J9">
-        <v>0.1704716129670063</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.2510655</v>
-      </c>
-      <c r="N9">
-        <v>0.502131</v>
-      </c>
-      <c r="O9">
-        <v>0.6603676314900031</v>
-      </c>
-      <c r="P9">
-        <v>0.56450546707948</v>
-      </c>
-      <c r="Q9">
-        <v>0.74161233783</v>
-      </c>
-      <c r="R9">
-        <v>2.96644935132</v>
-      </c>
-      <c r="S9">
-        <v>0.1555983519232698</v>
-      </c>
-      <c r="T9">
-        <v>0.09623215750173222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9016663333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.704999</v>
-      </c>
-      <c r="I10">
-        <v>0.07192422008191972</v>
-      </c>
-      <c r="J10">
-        <v>0.07805473898629911</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.129125</v>
-      </c>
-      <c r="N10">
-        <v>0.387375</v>
-      </c>
-      <c r="O10">
-        <v>0.339632368509997</v>
-      </c>
-      <c r="P10">
-        <v>0.4354945329205199</v>
-      </c>
-      <c r="Q10">
-        <v>0.1164276652916667</v>
-      </c>
-      <c r="R10">
-        <v>1.047848987625</v>
-      </c>
-      <c r="S10">
-        <v>0.02442779321965668</v>
-      </c>
-      <c r="T10">
-        <v>0.03399241209707143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9016663333333333</v>
-      </c>
-      <c r="H11">
-        <v>2.704999</v>
-      </c>
-      <c r="I11">
-        <v>0.07192422008191972</v>
-      </c>
-      <c r="J11">
-        <v>0.07805473898629911</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.2510655</v>
-      </c>
-      <c r="N11">
-        <v>0.502131</v>
-      </c>
-      <c r="O11">
-        <v>0.6603676314900031</v>
-      </c>
-      <c r="P11">
-        <v>0.56450546707948</v>
-      </c>
-      <c r="Q11">
-        <v>0.2263773088115</v>
-      </c>
-      <c r="R11">
-        <v>1.358263852869</v>
-      </c>
-      <c r="S11">
-        <v>0.04749642686226304</v>
-      </c>
-      <c r="T11">
-        <v>0.04406232688922768</v>
+        <v>0.1209916667577489</v>
       </c>
     </row>
   </sheetData>
